--- a/downloads/como-fazer-um-menu-de-navegacao.xlsx
+++ b/downloads/como-fazer-um-menu-de-navegacao.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Dropbox\Public\erredoze\postagens\criar_menu_navegacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricar\Documents\websites\excelnaweb.github.io\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
     <definedName name="VALIDACAO">'Validação de Dados'!$A$1</definedName>
     <definedName name="Vendas">'Intervalos Nomeados'!$C$2:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -994,7 +994,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$ &quot;#,##0.00"/>
   </numFmts>
@@ -2756,6 +2756,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Retângulo de cantos arredondados 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -2832,6 +2837,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Retângulo de cantos arredondados 12">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -2938,6 +2948,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Retângulo de cantos arredondados 13">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3027,6 +3042,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Retângulo de cantos arredondados 14">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3145,6 +3165,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Retângulo de cantos arredondados 15">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3263,6 +3288,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Retângulo de cantos arredondados 16">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3381,6 +3411,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Retângulo de cantos arredondados 17">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3499,6 +3534,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Retângulo de cantos arredondados 18">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -3615,7 +3655,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagem 20"/>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3662,226 +3708,45 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>149126</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="24" name="Grupo 23"/>
+        <xdr:cNvPr id="27" name="Agrupar 26">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Clique aqui para acessar"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A265B53B-33F7-4667-99D1-4189F14D5750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6438900" y="1171575"/>
-          <a:ext cx="4581525" cy="2381250"/>
-          <a:chOff x="6648450" y="447675"/>
-          <a:chExt cx="4848225" cy="2409825"/>
+          <a:off x="7200900" y="200025"/>
+          <a:ext cx="3629025" cy="3311426"/>
+          <a:chOff x="5419724" y="628650"/>
+          <a:chExt cx="3629025" cy="3311426"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Retângulo de cantos arredondados 24">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Faça uma doação"/>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="447675"/>
-            <a:ext cx="4848225" cy="2409825"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Este exemplo te Ajudou? Colabore Conosco!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1600" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Faça uma Doação!</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR" sz="1200" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Ajude-nos a continuar ofertando conteúdo de qualidade </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="1" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>GRATUITAMENTE</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1200" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>. Ficaremos muito agradecidos pela sua contribuição voluntária de qualquer valor!</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr lang="pt-BR">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pt-BR">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-              </a:rPr>
-            </a:br>
-            <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="26" name="Imagem 25">
-            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Faça uma doação"/>
+          <xdr:cNvPr id="28" name="Imagem 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704DB0C9-ED70-42AD-8151-32AE97C3C6DD}"/>
+              </a:ext>
+            </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
@@ -3901,14 +3766,61 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8067675" y="2219325"/>
-            <a:ext cx="1990725" cy="457200"/>
+            <a:off x="5419724" y="1104900"/>
+            <a:ext cx="3629025" cy="2835176"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Retângulo 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFC6DE2-F7A8-4191-A0FD-3B0C08690106}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5429250" y="628650"/>
+            <a:ext cx="3600450" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="3175"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="1"/>
+              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3932,7 +3844,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector angulado 1"/>
+        <xdr:cNvPr id="2" name="Conector angulado 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3987,7 +3905,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector angulado 2"/>
+        <xdr:cNvPr id="3" name="Conector angulado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4039,7 +3963,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector reto 3"/>
+        <xdr:cNvPr id="4" name="Conector reto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4090,7 +4020,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector reto 4"/>
+        <xdr:cNvPr id="5" name="Conector reto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4141,7 +4077,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector de seta reta 5"/>
+        <xdr:cNvPr id="6" name="Conector de seta reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4193,7 +4135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector reto 6"/>
+        <xdr:cNvPr id="7" name="Conector reto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4242,7 +4190,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector reto 7"/>
+        <xdr:cNvPr id="8" name="Conector reto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4291,7 +4245,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Conector de seta reta 8"/>
+        <xdr:cNvPr id="9" name="Conector de seta reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4343,6 +4303,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Retângulo de cantos arredondados 9">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4419,6 +4384,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Retângulo de cantos arredondados 10">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4506,7 +4476,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CaixaDeTexto 1"/>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4560,7 +4536,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector de seta reta 2"/>
+        <xdr:cNvPr id="3" name="Conector de seta reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4607,7 +4589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector de seta reta 3"/>
+        <xdr:cNvPr id="4" name="Conector de seta reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4657,7 +4645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector angulado 4"/>
+        <xdr:cNvPr id="5" name="Conector angulado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4708,7 +4702,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector angulado 5"/>
+        <xdr:cNvPr id="6" name="Conector angulado 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4762,6 +4762,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Retângulo de cantos arredondados 7">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4838,6 +4843,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Retângulo de cantos arredondados 8">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -4930,7 +4940,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector de seta reta 1"/>
+        <xdr:cNvPr id="2" name="Conector de seta reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4980,7 +4996,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector de seta reta 2"/>
+        <xdr:cNvPr id="3" name="Conector de seta reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5030,7 +5052,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector de seta reta 3"/>
+        <xdr:cNvPr id="4" name="Conector de seta reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5080,7 +5108,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector reto 4"/>
+        <xdr:cNvPr id="5" name="Conector reto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5129,7 +5163,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Conector reto 5"/>
+        <xdr:cNvPr id="6" name="Conector reto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5178,7 +5218,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector reto 6"/>
+        <xdr:cNvPr id="7" name="Conector reto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5227,7 +5273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector reto 7"/>
+        <xdr:cNvPr id="8" name="Conector reto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5276,7 +5328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Conector de seta reta 8"/>
+        <xdr:cNvPr id="9" name="Conector de seta reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5326,7 +5384,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Conector reto 9"/>
+        <xdr:cNvPr id="10" name="Conector reto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5375,7 +5439,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector de seta reta 10"/>
+        <xdr:cNvPr id="11" name="Conector de seta reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5425,7 +5495,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Conector de seta reta 29"/>
+        <xdr:cNvPr id="30" name="Conector de seta reta 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5475,7 +5551,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Conector de seta reta 30"/>
+        <xdr:cNvPr id="31" name="Conector de seta reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5525,7 +5607,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Conector reto 31"/>
+        <xdr:cNvPr id="32" name="Conector reto 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5574,7 +5662,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector reto 32"/>
+        <xdr:cNvPr id="33" name="Conector reto 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5623,7 +5717,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Conector reto 33"/>
+        <xdr:cNvPr id="34" name="Conector reto 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5672,7 +5772,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Conector reto 34"/>
+        <xdr:cNvPr id="35" name="Conector reto 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5721,7 +5827,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector de seta reta 35"/>
+        <xdr:cNvPr id="36" name="Conector de seta reta 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5771,7 +5883,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector reto 36"/>
+        <xdr:cNvPr id="37" name="Conector reto 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5820,7 +5938,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Conector de seta reta 37"/>
+        <xdr:cNvPr id="38" name="Conector de seta reta 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5872,6 +5996,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Retângulo de cantos arredondados 20">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -5948,6 +6077,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Retângulo de cantos arredondados 21">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6042,6 +6176,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6118,6 +6257,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6212,6 +6356,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6288,6 +6437,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6382,6 +6536,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6458,6 +6617,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6552,6 +6716,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6628,6 +6797,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6722,6 +6896,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Retângulo de cantos arredondados 1">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6798,6 +6977,11 @@
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Retângulo de cantos arredondados 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
@@ -6943,7 +7127,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6981,7 +7165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7016,6 +7200,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7051,9 +7252,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7206,7 +7424,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/downloads/como-fazer-um-menu-de-navegacao.xlsx
+++ b/downloads/como-fazer-um-menu-de-navegacao.xlsx
@@ -3706,124 +3706,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>149126</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="Agrupar 26">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tooltip="Clique aqui para acessar"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A265B53B-33F7-4667-99D1-4189F14D5750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7200900" y="200025"/>
-          <a:ext cx="3629025" cy="3311426"/>
-          <a:chOff x="5419724" y="628650"/>
-          <a:chExt cx="3629025" cy="3311426"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="28" name="Imagem 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{704DB0C9-ED70-42AD-8151-32AE97C3C6DD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5419724" y="1104900"/>
-            <a:ext cx="3629025" cy="2835176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Retângulo 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EFC6DE2-F7A8-4191-A0FD-3B0C08690106}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5429250" y="628650"/>
-            <a:ext cx="3600450" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="3175"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1400" b="1"/>
-              <a:t>DICA DE 1 MILHÃO DE DÓLARES</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7424,7 +7306,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
